--- a/tools/FractionTestResults.xlsx
+++ b/tools/FractionTestResults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Michael\Documents\Eclipse\rpncalc\tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E3B4591-9584-420D-A585-9A8469FA83D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F89454-7793-469C-B4D3-0646257007B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7830" yWindow="290" windowWidth="26420" windowHeight="20400" xr2:uid="{00F3575B-5AD0-4410-A625-5332D0BA3340}"/>
+    <workbookView xWindow="-38510" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00F3575B-5AD0-4410-A625-5332D0BA3340}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Result 16</t>
   </si>
@@ -61,11 +61,23 @@
   <si>
     <t>Test #</t>
   </si>
+  <si>
+    <t>Result 5</t>
+  </si>
+  <si>
+    <t>Result 3</t>
+  </si>
+  <si>
+    <t>Result 7</t>
+  </si>
+  <si>
+    <t>Result 9</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="7">
     <numFmt numFmtId="164" formatCode="#\ ?/32"/>
     <numFmt numFmtId="165" formatCode="#\ ??/16"/>
@@ -92,7 +104,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -105,8 +117,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -114,33 +132,95 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="13" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="13" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -162,23 +242,164 @@
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="13" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="13" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="13" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="13" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="13" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="13" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="13" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="13">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="18" formatCode="#\ ??/??"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="18" formatCode="#\ ??/??"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="18" formatCode="#\ ??/??"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="18" formatCode="#\ ??/??"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -355,7 +576,9 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Table Style 1" pivot="0" count="0" xr9:uid="{111D57CB-D742-4CE7-8033-D4E734D00F7C}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -368,30 +591,54 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4BB609A7-E0B7-41F1-97B1-32645B5770B9}" name="Table1" displayName="Table1" ref="B1:H29" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="B1:H29" xr:uid="{4BB609A7-E0B7-41F1-97B1-32645B5770B9}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{D33955EB-E972-4BC7-86B3-3A6F092C3876}" name="Input" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{127D1781-CA52-4844-9F9C-365917410D06}" name="Result 64" dataDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4BB609A7-E0B7-41F1-97B1-32645B5770B9}" name="Table1" displayName="Table1" ref="B1:L29" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+  <autoFilter ref="B1:L29" xr:uid="{4BB609A7-E0B7-41F1-97B1-32645B5770B9}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+    <filterColumn colId="5" hiddenButton="1"/>
+    <filterColumn colId="6" hiddenButton="1"/>
+    <filterColumn colId="7" hiddenButton="1"/>
+    <filterColumn colId="8" hiddenButton="1"/>
+    <filterColumn colId="9" hiddenButton="1"/>
+    <filterColumn colId="10" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{D33955EB-E972-4BC7-86B3-3A6F092C3876}" name="Input" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{127D1781-CA52-4844-9F9C-365917410D06}" name="Result 64" dataDxfId="9">
       <calculatedColumnFormula>MROUND($B2,1/64)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00ABBCB0-C1FE-4ED5-A5BD-425D2DD712F1}" name="Result 32" dataDxfId="4">
+    <tableColumn id="4" xr3:uid="{00ABBCB0-C1FE-4ED5-A5BD-425D2DD712F1}" name="Result 32" dataDxfId="8">
       <calculatedColumnFormula>MROUND($B2,1/32)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{DCF3A5E1-0F76-4C73-8F38-919AE5FE5564}" name="Result 16" dataDxfId="3">
+    <tableColumn id="5" xr3:uid="{DCF3A5E1-0F76-4C73-8F38-919AE5FE5564}" name="Result 16" dataDxfId="7">
       <calculatedColumnFormula>MROUND($B2,1/16)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{1AC64C87-7759-45A8-A615-AC97B91AA7C0}" name="Result 8" dataDxfId="2">
+    <tableColumn id="6" xr3:uid="{1AC64C87-7759-45A8-A615-AC97B91AA7C0}" name="Result 8" dataDxfId="6">
       <calculatedColumnFormula>MROUND($B2,1/8)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{CA0E2BB1-5CF8-4FDA-BFE7-CB5A21E5B51B}" name="Result 4" dataDxfId="1">
+    <tableColumn id="7" xr3:uid="{CA0E2BB1-5CF8-4FDA-BFE7-CB5A21E5B51B}" name="Result 4" dataDxfId="5">
       <calculatedColumnFormula>MROUND($B2,1/4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{3373242D-F794-4EC7-AB6F-BBD469CBD95A}" name="Result 2" dataDxfId="0">
+    <tableColumn id="8" xr3:uid="{3373242D-F794-4EC7-AB6F-BBD469CBD95A}" name="Result 2" dataDxfId="4">
       <calculatedColumnFormula>MROUND($B2,1/2)</calculatedColumnFormula>
     </tableColumn>
+    <tableColumn id="2" xr3:uid="{C6FDB36E-4B9B-4BB2-BDD3-38D1AF099174}" name="Result 3" dataDxfId="3">
+      <calculatedColumnFormula>MROUND($B2,1/3)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{70BB7FDE-8B07-4228-A674-7E1ACD1B3B55}" name="Result 5" dataDxfId="2">
+      <calculatedColumnFormula>MROUND($B2,1/5)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{47642CFF-F6AA-4F7C-99BC-2CB7EAF7BBB8}" name="Result 7" dataDxfId="1">
+      <calculatedColumnFormula>MROUND($B2,1/7)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{A6E22207-124D-4E18-BD5C-E6E3CF487E88}" name="Result 9" dataDxfId="0">
+      <calculatedColumnFormula>MROUND($B2,1/9)</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -692,831 +939,1331 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9528616-7E60-4956-AD29-4C4C1DDBB5C3}">
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
+      <selection pane="bottomLeft" activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="9"/>
-    <col min="2" max="2" width="21.453125" style="16" customWidth="1"/>
-    <col min="3" max="3" width="20.36328125" style="8" customWidth="1"/>
-    <col min="4" max="4" width="17.81640625" style="10" customWidth="1"/>
-    <col min="5" max="5" width="17.81640625" style="11" customWidth="1"/>
-    <col min="6" max="6" width="17.81640625" style="12" customWidth="1"/>
-    <col min="7" max="7" width="17.81640625" style="13" customWidth="1"/>
-    <col min="8" max="8" width="17.81640625" style="14" customWidth="1"/>
-    <col min="9" max="11" width="8.90625" style="9" customWidth="1"/>
-    <col min="12" max="16384" width="8.7265625" style="9"/>
+    <col min="1" max="1" width="8.7265625" style="3"/>
+    <col min="2" max="2" width="21.453125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="20.36328125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.81640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="17.81640625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="17.81640625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="17.81640625" style="7" customWidth="1"/>
+    <col min="8" max="12" width="17.81640625" style="8" customWidth="1"/>
+    <col min="13" max="16384" width="8.7265625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="4" t="s">
+      <c r="E1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="17" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="9">
+      <c r="I1" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A2" s="19">
         <v>1</v>
       </c>
-      <c r="B2" s="16">
+      <c r="B2" s="20">
         <v>71.046875</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="21">
         <f t="shared" ref="C2:C29" si="0">MROUND($B2,1/64)</f>
         <v>71.046875</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="21">
         <f>MROUND($B2,1/32)</f>
         <v>71.0625</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="21">
         <f>MROUND($B2,1/16)</f>
         <v>71.0625</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="21">
         <f>MROUND($B2,1/8)</f>
         <v>71</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="21">
         <f>MROUND($B2,1/4)</f>
         <v>71</v>
       </c>
-      <c r="H2" s="8">
+      <c r="H2" s="21">
         <f>MROUND($B2,1/2)</f>
         <v>71</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="9">
+      <c r="I2" s="21">
+        <f t="shared" ref="I2:I29" si="1">MROUND($B2,1/3)</f>
+        <v>71</v>
+      </c>
+      <c r="J2" s="21">
+        <f t="shared" ref="J2:J29" si="2">MROUND($B2,1/5)</f>
+        <v>71</v>
+      </c>
+      <c r="K2" s="21">
+        <f t="shared" ref="K2:K29" si="3">MROUND($B2,1/7)</f>
+        <v>71</v>
+      </c>
+      <c r="L2" s="22">
+        <f t="shared" ref="L2:L29" si="4">MROUND($B2,1/9)</f>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3" s="23">
         <v>2</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="24">
         <v>4.99</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="25">
         <f t="shared" si="0"/>
         <v>4.984375</v>
       </c>
-      <c r="D3" s="8">
-        <f t="shared" ref="D3:D29" si="1">MROUND($B3,1/32)</f>
+      <c r="D3" s="25">
+        <f t="shared" ref="D3:D29" si="5">MROUND($B3,1/32)</f>
         <v>5</v>
       </c>
-      <c r="E3" s="8">
-        <f t="shared" ref="E3:E29" si="2">MROUND($B3,1/16)</f>
+      <c r="E3" s="25">
+        <f t="shared" ref="E3:E29" si="6">MROUND($B3,1/16)</f>
         <v>5</v>
       </c>
-      <c r="F3" s="8">
-        <f t="shared" ref="F3:F29" si="3">MROUND($B3,1/8)</f>
+      <c r="F3" s="25">
+        <f t="shared" ref="F3:F29" si="7">MROUND($B3,1/8)</f>
         <v>5</v>
       </c>
-      <c r="G3" s="8">
-        <f t="shared" ref="G3:G29" si="4">MROUND($B3,1/4)</f>
+      <c r="G3" s="25">
+        <f t="shared" ref="G3:G29" si="8">MROUND($B3,1/4)</f>
         <v>5</v>
       </c>
-      <c r="H3" s="8">
-        <f t="shared" ref="H3:H29" si="5">MROUND($B3,1/2)</f>
+      <c r="H3" s="25">
+        <f t="shared" ref="H3:L29" si="9">MROUND($B3,1/2)</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="9">
+      <c r="I3" s="25">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="J3" s="25">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="K3" s="25">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="L3" s="26">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4" s="19">
         <v>3</v>
       </c>
-      <c r="B4" s="16">
+      <c r="B4" s="20">
         <v>23.212121</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="21">
         <f t="shared" si="0"/>
         <v>23.21875</v>
       </c>
-      <c r="D4" s="8">
-        <f t="shared" si="1"/>
+      <c r="D4" s="21">
+        <f t="shared" si="5"/>
         <v>23.21875</v>
       </c>
-      <c r="E4" s="8">
-        <f t="shared" si="2"/>
+      <c r="E4" s="21">
+        <f t="shared" si="6"/>
         <v>23.1875</v>
       </c>
-      <c r="F4" s="8">
-        <f t="shared" si="3"/>
+      <c r="F4" s="21">
+        <f t="shared" si="7"/>
         <v>23.25</v>
       </c>
-      <c r="G4" s="8">
-        <f t="shared" si="4"/>
+      <c r="G4" s="21">
+        <f t="shared" si="8"/>
         <v>23.25</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="21">
+        <f t="shared" si="9"/>
+        <v>23</v>
+      </c>
+      <c r="I4" s="21">
+        <f t="shared" si="1"/>
+        <v>23.333333333333332</v>
+      </c>
+      <c r="J4" s="21">
+        <f t="shared" si="2"/>
+        <v>23.200000000000003</v>
+      </c>
+      <c r="K4" s="21">
+        <f t="shared" si="3"/>
+        <v>23.142857142857142</v>
+      </c>
+      <c r="L4" s="22">
+        <f t="shared" si="4"/>
+        <v>23.222222222222221</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A5" s="23">
+        <v>4</v>
+      </c>
+      <c r="B5" s="24">
+        <v>71.727199999999996</v>
+      </c>
+      <c r="C5" s="25">
+        <f t="shared" si="0"/>
+        <v>71.734375</v>
+      </c>
+      <c r="D5" s="25">
         <f t="shared" si="5"/>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="9">
-        <v>4</v>
-      </c>
-      <c r="B5" s="16">
-        <v>71.727199999999996</v>
-      </c>
-      <c r="C5" s="8">
-        <f t="shared" si="0"/>
-        <v>71.734375</v>
-      </c>
-      <c r="D5" s="8">
-        <f t="shared" si="1"/>
         <v>71.71875</v>
       </c>
-      <c r="E5" s="8">
-        <f t="shared" si="2"/>
+      <c r="E5" s="25">
+        <f t="shared" si="6"/>
         <v>71.75</v>
       </c>
-      <c r="F5" s="8">
-        <f t="shared" si="3"/>
+      <c r="F5" s="25">
+        <f t="shared" si="7"/>
         <v>71.75</v>
       </c>
-      <c r="G5" s="8">
-        <f t="shared" si="4"/>
+      <c r="G5" s="25">
+        <f t="shared" si="8"/>
         <v>71.75</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="25">
+        <f t="shared" si="9"/>
+        <v>71.5</v>
+      </c>
+      <c r="I5" s="25">
+        <f t="shared" si="1"/>
+        <v>71.666666666666657</v>
+      </c>
+      <c r="J5" s="25">
+        <f t="shared" si="2"/>
+        <v>71.8</v>
+      </c>
+      <c r="K5" s="25">
+        <f t="shared" si="3"/>
+        <v>71.714285714285708</v>
+      </c>
+      <c r="L5" s="26">
+        <f t="shared" si="4"/>
+        <v>71.777777777777771</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A6" s="19"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D6" s="21">
         <f t="shared" si="5"/>
-        <v>71.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="C6" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D6" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E6" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F6" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G6" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H6" s="8">
+        <v>0</v>
+      </c>
+      <c r="E6" s="21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F6" s="21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="21">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="21">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L6" s="22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A7" s="23"/>
+      <c r="B7" s="24">
+        <v>71.046875</v>
+      </c>
+      <c r="C7" s="25">
+        <f t="shared" si="0"/>
+        <v>71.046875</v>
+      </c>
+      <c r="D7" s="25">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B7" s="16">
-        <v>71.046875</v>
-      </c>
-      <c r="C7" s="8">
-        <f t="shared" si="0"/>
-        <v>71.046875</v>
-      </c>
-      <c r="D7" s="8">
-        <f t="shared" si="1"/>
         <v>71.0625</v>
       </c>
-      <c r="E7" s="8">
-        <f t="shared" si="2"/>
+      <c r="E7" s="25">
+        <f t="shared" si="6"/>
         <v>71.0625</v>
       </c>
-      <c r="F7" s="8">
-        <f t="shared" si="3"/>
+      <c r="F7" s="25">
+        <f t="shared" si="7"/>
         <v>71</v>
       </c>
-      <c r="G7" s="8">
-        <f t="shared" si="4"/>
+      <c r="G7" s="25">
+        <f t="shared" si="8"/>
         <v>71</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="25">
+        <f t="shared" si="9"/>
+        <v>71</v>
+      </c>
+      <c r="I7" s="25">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
+      <c r="J7" s="25">
+        <f t="shared" si="2"/>
+        <v>71</v>
+      </c>
+      <c r="K7" s="25">
+        <f t="shared" si="3"/>
+        <v>71</v>
+      </c>
+      <c r="L7" s="26">
+        <f t="shared" si="4"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A8" s="19"/>
+      <c r="B8" s="20">
+        <v>14.77</v>
+      </c>
+      <c r="C8" s="21">
+        <f t="shared" si="0"/>
+        <v>14.765625</v>
+      </c>
+      <c r="D8" s="21">
         <f t="shared" si="5"/>
-        <v>71</v>
-      </c>
-      <c r="J7" s="18"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B8" s="16">
-        <v>14.77</v>
-      </c>
-      <c r="C8" s="8">
-        <f t="shared" si="0"/>
-        <v>14.765625</v>
-      </c>
-      <c r="D8" s="8">
-        <f t="shared" si="1"/>
         <v>14.78125</v>
       </c>
-      <c r="E8" s="8">
-        <f t="shared" si="2"/>
+      <c r="E8" s="21">
+        <f t="shared" si="6"/>
         <v>14.75</v>
       </c>
-      <c r="F8" s="8">
-        <f t="shared" si="3"/>
+      <c r="F8" s="21">
+        <f t="shared" si="7"/>
         <v>14.75</v>
       </c>
-      <c r="G8" s="8">
-        <f t="shared" si="4"/>
+      <c r="G8" s="21">
+        <f t="shared" si="8"/>
         <v>14.75</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="21">
+        <f t="shared" si="9"/>
+        <v>15</v>
+      </c>
+      <c r="I8" s="21">
+        <f t="shared" si="1"/>
+        <v>14.666666666666666</v>
+      </c>
+      <c r="J8" s="21">
+        <f t="shared" si="2"/>
+        <v>14.8</v>
+      </c>
+      <c r="K8" s="21">
+        <f t="shared" si="3"/>
+        <v>14.714285714285714</v>
+      </c>
+      <c r="L8" s="22">
+        <f t="shared" si="4"/>
+        <v>14.777777777777777</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9" s="23"/>
+      <c r="B9" s="24">
+        <v>123.456</v>
+      </c>
+      <c r="C9" s="25">
+        <f t="shared" si="0"/>
+        <v>123.453125</v>
+      </c>
+      <c r="D9" s="25">
         <f t="shared" si="5"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B9" s="16">
-        <v>123.456</v>
-      </c>
-      <c r="C9" s="8">
-        <f t="shared" si="0"/>
-        <v>123.453125</v>
-      </c>
-      <c r="D9" s="8">
-        <f t="shared" si="1"/>
         <v>123.46875</v>
       </c>
-      <c r="E9" s="8">
-        <f t="shared" si="2"/>
+      <c r="E9" s="25">
+        <f t="shared" si="6"/>
         <v>123.4375</v>
       </c>
-      <c r="F9" s="8">
-        <f t="shared" si="3"/>
+      <c r="F9" s="25">
+        <f t="shared" si="7"/>
         <v>123.5</v>
       </c>
-      <c r="G9" s="8">
-        <f t="shared" si="4"/>
+      <c r="G9" s="25">
+        <f t="shared" si="8"/>
         <v>123.5</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="25">
+        <f t="shared" si="9"/>
+        <v>123.5</v>
+      </c>
+      <c r="I9" s="25">
+        <f t="shared" si="1"/>
+        <v>123.33333333333333</v>
+      </c>
+      <c r="J9" s="25">
+        <f t="shared" si="2"/>
+        <v>123.4</v>
+      </c>
+      <c r="K9" s="25">
+        <f t="shared" si="3"/>
+        <v>123.42857142857142</v>
+      </c>
+      <c r="L9" s="26">
+        <f t="shared" si="4"/>
+        <v>123.44444444444444</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10" s="19"/>
+      <c r="B10" s="20">
+        <v>41.970588235000001</v>
+      </c>
+      <c r="C10" s="21">
+        <f t="shared" si="0"/>
+        <v>41.96875</v>
+      </c>
+      <c r="D10" s="21">
         <f t="shared" si="5"/>
-        <v>123.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B10" s="16">
-        <v>41.970588235000001</v>
-      </c>
-      <c r="C10" s="8">
-        <f t="shared" si="0"/>
         <v>41.96875</v>
       </c>
-      <c r="D10" s="8">
-        <f t="shared" si="1"/>
-        <v>41.96875</v>
-      </c>
-      <c r="E10" s="8">
-        <f t="shared" si="2"/>
+      <c r="E10" s="21">
+        <f t="shared" si="6"/>
         <v>42</v>
       </c>
-      <c r="F10" s="8">
-        <f t="shared" si="3"/>
+      <c r="F10" s="21">
+        <f t="shared" si="7"/>
         <v>42</v>
       </c>
-      <c r="G10" s="8">
-        <f t="shared" si="4"/>
+      <c r="G10" s="21">
+        <f t="shared" si="8"/>
         <v>42</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="21">
+        <f t="shared" si="9"/>
+        <v>42</v>
+      </c>
+      <c r="I10" s="21">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="J10" s="21">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="K10" s="21">
+        <f t="shared" si="3"/>
+        <v>42</v>
+      </c>
+      <c r="L10" s="22">
+        <f t="shared" si="4"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A11" s="23"/>
+      <c r="B11" s="24">
+        <v>12.123123123123101</v>
+      </c>
+      <c r="C11" s="25">
+        <f t="shared" si="0"/>
+        <v>12.125</v>
+      </c>
+      <c r="D11" s="25">
         <f t="shared" si="5"/>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B11" s="16">
-        <v>12.123123123123101</v>
-      </c>
-      <c r="C11" s="8">
-        <f t="shared" si="0"/>
         <v>12.125</v>
       </c>
-      <c r="D11" s="8">
-        <f t="shared" si="1"/>
+      <c r="E11" s="25">
+        <f t="shared" si="6"/>
         <v>12.125</v>
       </c>
-      <c r="E11" s="8">
-        <f t="shared" si="2"/>
+      <c r="F11" s="25">
+        <f t="shared" si="7"/>
         <v>12.125</v>
       </c>
-      <c r="F11" s="8">
-        <f t="shared" si="3"/>
-        <v>12.125</v>
-      </c>
-      <c r="G11" s="8">
-        <f t="shared" si="4"/>
+      <c r="G11" s="25">
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
-      <c r="H11" s="8">
-        <f t="shared" si="5"/>
+      <c r="H11" s="25">
+        <f t="shared" si="9"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="C12" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D12" s="8">
-        <f t="shared" ref="D12:D27" si="6">MROUND($B12,1/32)</f>
-        <v>0</v>
-      </c>
-      <c r="E12" s="8">
-        <f t="shared" ref="E12:E27" si="7">MROUND($B12,1/16)</f>
-        <v>0</v>
-      </c>
-      <c r="F12" s="8">
-        <f t="shared" ref="F12:F27" si="8">MROUND($B12,1/8)</f>
-        <v>0</v>
-      </c>
-      <c r="G12" s="8">
-        <f t="shared" ref="G12:G27" si="9">MROUND($B12,1/4)</f>
-        <v>0</v>
-      </c>
-      <c r="H12" s="8">
-        <f t="shared" ref="H12:H27" si="10">MROUND($B12,1/2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B13" s="16">
+      <c r="I11" s="25">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="J11" s="25">
+        <f t="shared" si="2"/>
+        <v>12.200000000000001</v>
+      </c>
+      <c r="K11" s="25">
+        <f t="shared" si="3"/>
+        <v>12.142857142857142</v>
+      </c>
+      <c r="L11" s="26">
+        <f t="shared" si="4"/>
+        <v>12.111111111111111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12" s="19"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D12" s="21">
+        <f t="shared" ref="D12:D27" si="10">MROUND($B12,1/32)</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="21">
+        <f t="shared" ref="E12:E27" si="11">MROUND($B12,1/16)</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="21">
+        <f t="shared" ref="F12:F27" si="12">MROUND($B12,1/8)</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="21">
+        <f t="shared" ref="G12:G27" si="13">MROUND($B12,1/4)</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="21">
+        <f t="shared" ref="H12:L27" si="14">MROUND($B12,1/2)</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A13" s="23"/>
+      <c r="B13" s="24">
         <v>3.984375</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="25">
         <f t="shared" si="0"/>
         <v>3.984375</v>
       </c>
-      <c r="D13" s="8">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="E13" s="8">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-      <c r="F13" s="8">
-        <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
-      <c r="G13" s="8">
-        <f t="shared" si="9"/>
-        <v>4</v>
-      </c>
-      <c r="H13" s="8">
+      <c r="D13" s="25">
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B14" s="17">
+      <c r="E13" s="25">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="F13" s="25">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="G13" s="25">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="H13" s="25">
+        <f t="shared" si="14"/>
+        <v>4</v>
+      </c>
+      <c r="I13" s="25">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="J13" s="25">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="K13" s="25">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="L13" s="26">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A14" s="19"/>
+      <c r="B14" s="27">
         <v>33.8333333333333</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="21">
         <f t="shared" si="0"/>
         <v>33.828125</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="21">
+        <f t="shared" si="10"/>
+        <v>33.84375</v>
+      </c>
+      <c r="E14" s="21">
+        <f t="shared" si="11"/>
+        <v>33.8125</v>
+      </c>
+      <c r="F14" s="21">
+        <f t="shared" si="12"/>
+        <v>33.875</v>
+      </c>
+      <c r="G14" s="21">
+        <f t="shared" si="13"/>
+        <v>33.75</v>
+      </c>
+      <c r="H14" s="21">
+        <f t="shared" si="14"/>
+        <v>34</v>
+      </c>
+      <c r="I14" s="21">
+        <f t="shared" si="1"/>
+        <v>33.666666666666664</v>
+      </c>
+      <c r="J14" s="21">
+        <f t="shared" si="2"/>
+        <v>33.800000000000004</v>
+      </c>
+      <c r="K14" s="21">
+        <f t="shared" si="3"/>
+        <v>33.857142857142854</v>
+      </c>
+      <c r="L14" s="22">
+        <f t="shared" si="4"/>
+        <v>33.777777777777779</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A15" s="23"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D15" s="25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E15" s="25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="25">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="25">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="25">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A16" s="19"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D16" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E16" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F16" s="21">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="21">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="21">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A17" s="23"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D17" s="25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E17" s="25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="25">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="25">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="25">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K17" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L17" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A18" s="19"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D18" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E18" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F18" s="21">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="21">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="21">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A19" s="23"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D19" s="25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E19" s="25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="25">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="25">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H19" s="25">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A20" s="19"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D20" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E20" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F20" s="21">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="21">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H20" s="21">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K20" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L20" s="22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A21" s="23"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D21" s="25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E21" s="25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F21" s="25">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="25">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H21" s="25">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A22" s="19"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D22" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E22" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F22" s="21">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="21">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H22" s="21">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I22" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K22" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L22" s="22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A23" s="23"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D23" s="25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E23" s="25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F23" s="25">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="25">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H23" s="25">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I23" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J23" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K23" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L23" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A24" s="19"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D24" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E24" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F24" s="21">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="21">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H24" s="21">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I24" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J24" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K24" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L24" s="22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A25" s="23"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D25" s="25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E25" s="25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F25" s="25">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="25">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H25" s="25">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I25" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J25" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K25" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L25" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A26" s="19"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D26" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E26" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F26" s="21">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="21">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H26" s="21">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J26" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K26" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L26" s="22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A27" s="23"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D27" s="25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E27" s="25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F27" s="25">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="25">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H27" s="25">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I27" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J27" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K27" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L27" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A28" s="19"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D28" s="21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E28" s="21">
         <f t="shared" si="6"/>
-        <v>33.84375</v>
-      </c>
-      <c r="E14" s="8">
+        <v>0</v>
+      </c>
+      <c r="F28" s="21">
         <f t="shared" si="7"/>
-        <v>33.8125</v>
-      </c>
-      <c r="F14" s="8">
+        <v>0</v>
+      </c>
+      <c r="G28" s="21">
         <f t="shared" si="8"/>
-        <v>33.875</v>
-      </c>
-      <c r="G14" s="8">
+        <v>0</v>
+      </c>
+      <c r="H28" s="21">
         <f t="shared" si="9"/>
-        <v>33.75</v>
-      </c>
-      <c r="H14" s="8">
-        <f t="shared" si="10"/>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="C15" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D15" s="8">
+        <v>0</v>
+      </c>
+      <c r="I28" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J28" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K28" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L28" s="22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="28"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D29" s="30">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E29" s="30">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="E15" s="8">
+      <c r="F29" s="30">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F15" s="8">
+      <c r="G29" s="30">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="G15" s="8">
+      <c r="H29" s="30">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H15" s="8">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="C16" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D16" s="8">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="E16" s="8">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F16" s="8">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G16" s="8">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="H16" s="8">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C17" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D17" s="8">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="E17" s="8">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F17" s="8">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G17" s="8">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="H17" s="8">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C18" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D18" s="8">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="E18" s="8">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F18" s="8">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G18" s="8">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="H18" s="8">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C19" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D19" s="8">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="E19" s="8">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F19" s="8">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G19" s="8">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="H19" s="8">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C20" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D20" s="8">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="E20" s="8">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F20" s="8">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G20" s="8">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="H20" s="8">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C21" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D21" s="8">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="E21" s="8">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F21" s="8">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G21" s="8">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="H21" s="8">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C22" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D22" s="8">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="E22" s="8">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F22" s="8">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G22" s="8">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="H22" s="8">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C23" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D23" s="8">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="E23" s="8">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F23" s="8">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G23" s="8">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="H23" s="8">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C24" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D24" s="8">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="E24" s="8">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F24" s="8">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G24" s="8">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="H24" s="8">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C25" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D25" s="8">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="E25" s="8">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F25" s="8">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G25" s="8">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="H25" s="8">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C26" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D26" s="8">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="E26" s="8">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F26" s="8">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G26" s="8">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="H26" s="8">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C27" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D27" s="8">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="E27" s="8">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F27" s="8">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G27" s="8">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="H27" s="8">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C28" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D28" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E28" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F28" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G28" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H28" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C29" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D29" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E29" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F29" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G29" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H29" s="8">
-        <f t="shared" si="5"/>
+      <c r="I29" s="30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J29" s="30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K29" s="30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L29" s="31">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>